--- a/s2cDNASample/s2CDNASample_hbrown_08.22.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_08.22.19.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/3d metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D79496-EBFE-5947-AEAF-B4B674339520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC1710-F459-4D46-A21F-874E1546499A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12420" yWindow="8760" windowWidth="21180" windowHeight="10640" xr2:uid="{02C179BB-9114-4149-9DD2-28797CBB2CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="12">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -65,12 +65,15 @@
   <si>
     <t>E7420L</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +98,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,13 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3048E6D1-76AE-5249-8901-BBFFDE2233EB}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,8 +525,8 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -561,8 +572,8 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -587,8 +598,8 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -613,8 +624,8 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -639,8 +650,8 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -665,8 +676,8 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -691,8 +702,8 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -717,8 +728,8 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -743,8 +754,8 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -769,8 +780,8 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -795,8 +806,8 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -821,8 +832,8 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -847,8 +858,8 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -873,8 +884,8 @@
       <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -899,8 +910,8 @@
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -925,8 +936,8 @@
       <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,8 +962,8 @@
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,8 +988,8 @@
       <c r="G19" t="s">
         <v>10</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,8 +1014,8 @@
       <c r="G20" t="s">
         <v>10</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,8 +1040,8 @@
       <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1055,8 +1066,8 @@
       <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1081,8 +1092,8 @@
       <c r="G23" t="s">
         <v>10</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1107,8 +1118,8 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1133,8 +1144,8 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1159,8 +1170,8 @@
       <c r="G26" t="s">
         <v>10</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1185,9 +1196,24 @@
       <c r="G27" t="s">
         <v>10</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
